--- a/new_data/N225/N225_2018/N225_2018_list.xlsx
+++ b/new_data/N225/N225_2018/N225_2018_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\N225\N225_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AF2356-5CE9-4760-9125-6846122825F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165E794-57D2-4B36-93BE-214F350048CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Volume</t>
   </si>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>PSY 24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bias_24_L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdp_L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1044,6 +1052,16 @@
         <v>24</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/new_data/N225/N225_2018/N225_2018_list.xlsx
+++ b/new_data/N225/N225_2018/N225_2018_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\N225\N225_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165E794-57D2-4B36-93BE-214F350048CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9310FA7D-9845-48DB-8A65-2C2B82E6ABC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Volume</t>
   </si>
@@ -133,11 +133,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bias_24_L1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdp_L1</t>
+    <t>BIAS_24</t>
+  </si>
+  <si>
+    <t>BIAS_6</t>
+  </si>
+  <si>
+    <t>BIAS_12</t>
+  </si>
+  <si>
+    <t>PSY_12</t>
+  </si>
+  <si>
+    <t>PSY_24</t>
+  </si>
+  <si>
+    <t>RDP_L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS_24_L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -854,7 +869,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -872,7 +887,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -893,7 +908,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -914,7 +929,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
@@ -927,7 +942,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
@@ -1053,13 +1068,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="10" t="s">
-        <v>29</v>
+      <c r="H25" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="10" t="s">
-        <v>30</v>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
